--- a/Hasil_Pengujian_Map_4_128.xlsx
+++ b/Hasil_Pengujian_Map_4_128.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMHAS\TA_Python_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE32A76A-F654-4D45-9A70-DE80260BB557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BE90F0-3353-4AE7-8B4F-F5F16C2413AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waktu Pencarian" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,14 @@
     <sheet name="Jumlah Belok" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Waktu Pencarian'!$A$1:$F$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Waktu Pencarian'!$A$1:$F$97</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="102">
   <si>
     <t>Jumlah Kombinasi</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>BDS-BRC</t>
+  </si>
+  <si>
+    <t>BDS-EL</t>
   </si>
   <si>
     <t>BDS-GL</t>
@@ -113,6 +116,9 @@
     <t>TPF-PPO</t>
   </si>
   <si>
+    <t>BDS-BRC-EL</t>
+  </si>
+  <si>
     <t>BDS-BRC-PPO</t>
   </si>
   <si>
@@ -122,10 +128,19 @@
     <t>BDS-GL-BRC</t>
   </si>
   <si>
+    <t>BDS-GL-EL</t>
+  </si>
+  <si>
     <t>BDS-GL-PPO</t>
   </si>
   <si>
     <t>BDS-GL-TPF</t>
+  </si>
+  <si>
+    <t>BDS-PPO-EL</t>
+  </si>
+  <si>
+    <t>BDS-TPF-EL</t>
   </si>
   <si>
     <t>BDS-TPF-PPO</t>
@@ -144,6 +159,9 @@
   </si>
   <si>
     <t>JPS-BDS-BRC</t>
+  </si>
+  <si>
+    <t>JPS-BDS-EL</t>
   </si>
   <si>
     <t>JPS-BDS-GL</t>
@@ -173,7 +191,16 @@
     <t>JPS-TPF-PPO</t>
   </si>
   <si>
+    <t>BDS-BRC-PPO-EL</t>
+  </si>
+  <si>
+    <t>BDS-BRC-TPF-EL</t>
+  </si>
+  <si>
     <t>BDS-BRC-TPF-PPO</t>
+  </si>
+  <si>
+    <t>BDS-GL-BRC-EL</t>
   </si>
   <si>
     <t>BDS-GL-BRC-PPO</t>
@@ -182,10 +209,22 @@
     <t>BDS-GL-BRC-TPF</t>
   </si>
   <si>
+    <t>BDS-GL-PPO-EL</t>
+  </si>
+  <si>
+    <t>BDS-GL-TPF-EL</t>
+  </si>
+  <si>
     <t>BDS-GL-TPF-PPO</t>
   </si>
   <si>
+    <t>BDS-TPF-PPO-EL</t>
+  </si>
+  <si>
     <t>GL-BRC-TPF-PPO</t>
+  </si>
+  <si>
+    <t>JPS-BDS-BRC-EL</t>
   </si>
   <si>
     <t>JPS-BDS-BRC-PPO</t>
@@ -197,10 +236,19 @@
     <t>JPS-BDS-GL-BRC</t>
   </si>
   <si>
+    <t>JPS-BDS-GL-EL</t>
+  </si>
+  <si>
     <t>JPS-BDS-GL-PPO</t>
   </si>
   <si>
     <t>JPS-BDS-GL-TPF</t>
+  </si>
+  <si>
+    <t>JPS-BDS-PPO-EL</t>
+  </si>
+  <si>
+    <t>JPS-BDS-TPF-EL</t>
   </si>
   <si>
     <t>JPS-BDS-TPF-PPO</t>
@@ -218,10 +266,31 @@
     <t>JPS-GL-TPF-PPO</t>
   </si>
   <si>
+    <t>BDS-BRC-TPF-PPO-EL</t>
+  </si>
+  <si>
+    <t>BDS-GL-BRC-PPO-EL</t>
+  </si>
+  <si>
+    <t>BDS-GL-BRC-TPF-EL</t>
+  </si>
+  <si>
     <t>BDS-GL-BRC-TPF-PPO</t>
   </si>
   <si>
+    <t>BDS-GL-TPF-PPO-EL</t>
+  </si>
+  <si>
+    <t>JPS-BDS-BRC-PPO-EL</t>
+  </si>
+  <si>
+    <t>JPS-BDS-BRC-TPF-EL</t>
+  </si>
+  <si>
     <t>JPS-BDS-BRC-TPF-PPO</t>
+  </si>
+  <si>
+    <t>JPS-BDS-GL-BRC-EL</t>
   </si>
   <si>
     <t>JPS-BDS-GL-BRC-PPO</t>
@@ -230,13 +299,40 @@
     <t>JPS-BDS-GL-BRC-TPF</t>
   </si>
   <si>
+    <t>JPS-BDS-GL-PPO-EL</t>
+  </si>
+  <si>
+    <t>JPS-BDS-GL-TPF-EL</t>
+  </si>
+  <si>
     <t>JPS-BDS-GL-TPF-PPO</t>
+  </si>
+  <si>
+    <t>JPS-BDS-TPF-PPO-EL</t>
   </si>
   <si>
     <t>JPS-GL-BRC-TPF-PPO</t>
   </si>
   <si>
+    <t>BDS-GL-BRC-TPF-PPO-EL</t>
+  </si>
+  <si>
+    <t>JPS-BDS-BRC-TPF-PPO-EL</t>
+  </si>
+  <si>
+    <t>JPS-BDS-GL-BRC-PPO-EL</t>
+  </si>
+  <si>
+    <t>JPS-BDS-GL-BRC-TPF-EL</t>
+  </si>
+  <si>
     <t>JPS-BDS-GL-BRC-TPF-PPO</t>
+  </si>
+  <si>
+    <t>JPS-BDS-GL-TPF-PPO-EL</t>
+  </si>
+  <si>
+    <t>JPS-BDS-GL-BRC-TPF-PPO-EL</t>
   </si>
 </sst>
 </file>
@@ -599,16 +695,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -633,182 +728,182 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>7.1199999999999996E-4</v>
+        <v>1.683E-3</v>
       </c>
       <c r="D2">
-        <v>1.6429999999999999E-3</v>
+        <v>5.8834999999999998E-3</v>
       </c>
       <c r="E2">
-        <v>4.143E-3</v>
+        <v>4.9748500000000001E-2</v>
       </c>
       <c r="F2">
-        <v>1.2902E-2</v>
+        <v>0.342584</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>7.0500000000000001E-4</v>
+        <v>2.7799999999999998E-4</v>
       </c>
       <c r="D3">
-        <v>1.3699999999999999E-3</v>
+        <v>1.0219999999999999E-3</v>
       </c>
       <c r="E3">
-        <v>3.8730000000000001E-3</v>
+        <v>3.862E-3</v>
       </c>
       <c r="F3">
-        <v>1.342E-2</v>
+        <v>1.6213000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>7.2000000000000005E-4</v>
+        <v>5.0250000000000002E-4</v>
       </c>
       <c r="D4">
-        <v>1.438E-3</v>
+        <v>1.2825E-3</v>
       </c>
       <c r="E4">
-        <v>4.0889999999999998E-3</v>
+        <v>4.8935000000000003E-3</v>
       </c>
       <c r="F4">
-        <v>1.3615E-2</v>
+        <v>2.4206999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>6.69E-4</v>
       </c>
       <c r="D5">
-        <v>1.516E-3</v>
+        <v>2.1359999999999999E-3</v>
       </c>
       <c r="E5">
-        <v>4.0179999999999999E-3</v>
+        <v>8.261000000000001E-3</v>
       </c>
       <c r="F5">
-        <v>1.3648E-2</v>
+        <v>3.3344499999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>5.0000000000000001E-4</v>
+        <v>6.2549999999999997E-4</v>
       </c>
       <c r="D6">
-        <v>1.9559999999999998E-3</v>
+        <v>3.7404999999999999E-3</v>
       </c>
       <c r="E6">
-        <v>4.4689999999999999E-3</v>
+        <v>2.47E-2</v>
       </c>
       <c r="F6">
-        <v>1.6299999999999999E-2</v>
+        <v>0.16374549999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>5.5000000000000003E-4</v>
+        <v>1.8445E-3</v>
       </c>
       <c r="D7">
-        <v>1.552E-3</v>
+        <v>5.8455E-3</v>
       </c>
       <c r="E7">
-        <v>4.3750000000000004E-3</v>
+        <v>4.9848000000000003E-2</v>
       </c>
       <c r="F7">
-        <v>1.6546000000000002E-2</v>
+        <v>0.34197450000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>4.8500000000000003E-4</v>
+        <v>1.7135E-3</v>
       </c>
       <c r="D8">
-        <v>1.544E-3</v>
+        <v>7.0070000000000002E-3</v>
       </c>
       <c r="E8">
-        <v>4.4429999999999999E-3</v>
+        <v>5.4998999999999999E-2</v>
       </c>
       <c r="F8">
-        <v>1.6603E-2</v>
+        <v>0.34494150000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>4.9399999999999997E-4</v>
+        <v>1.6799999999999999E-4</v>
       </c>
       <c r="D9">
-        <v>1.397E-3</v>
+        <v>3.3300000000000002E-4</v>
       </c>
       <c r="E9">
-        <v>4.4349999999999997E-3</v>
+        <v>6.8999999999999997E-4</v>
       </c>
       <c r="F9">
-        <v>1.8259000000000001E-2</v>
+        <v>1.4120000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>3.3599999999999998E-4</v>
+        <v>4.57E-4</v>
       </c>
       <c r="D10">
-        <v>1.72E-3</v>
+        <v>1.039E-3</v>
       </c>
       <c r="E10">
-        <v>4.731E-3</v>
+        <v>2.8170000000000001E-3</v>
       </c>
       <c r="F10">
-        <v>1.8841E-2</v>
+        <v>7.8670000000000007E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -816,19 +911,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>3.4000000000000002E-4</v>
+        <v>3.6600000000000001E-4</v>
       </c>
       <c r="D11">
-        <v>1.683E-3</v>
+        <v>1.1689999999999999E-3</v>
       </c>
       <c r="E11">
-        <v>4.7679999999999997E-3</v>
+        <v>4.5009999999999998E-3</v>
       </c>
       <c r="F11">
-        <v>1.8970000000000001E-2</v>
+        <v>1.6576E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -836,379 +931,379 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>4.6000000000000001E-4</v>
+        <v>3.7300000000000001E-4</v>
       </c>
       <c r="D12">
-        <v>1.353E-3</v>
+        <v>1.1025E-3</v>
       </c>
       <c r="E12">
-        <v>4.5389999999999996E-3</v>
+        <v>3.8325E-3</v>
       </c>
       <c r="F12">
-        <v>1.9063E-2</v>
+        <v>1.6704E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>4.5899999999999999E-4</v>
+        <v>3.19E-4</v>
       </c>
       <c r="D13">
-        <v>1.5889999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="E13">
-        <v>4.555E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="F13">
-        <v>1.9134999999999999E-2</v>
+        <v>1.7077999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>4.4499999999999997E-4</v>
+        <v>4.9850000000000003E-4</v>
       </c>
       <c r="D14">
-        <v>1.485E-3</v>
+        <v>1.3845000000000001E-3</v>
       </c>
       <c r="E14">
-        <v>4.3689999999999996E-3</v>
+        <v>4.9199999999999999E-3</v>
       </c>
       <c r="F14">
-        <v>1.9217999999999999E-2</v>
+        <v>2.2915000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>4.6099999999999998E-4</v>
+        <v>3.4499999999999998E-4</v>
       </c>
       <c r="D15">
-        <v>1.531E-3</v>
+        <v>1.3140000000000001E-3</v>
       </c>
       <c r="E15">
-        <v>4.4209999999999996E-3</v>
+        <v>5.7060000000000001E-3</v>
       </c>
       <c r="F15">
-        <v>1.9949999999999999E-2</v>
+        <v>2.3054999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>3.6600000000000001E-4</v>
+        <v>4.3199999999999998E-4</v>
       </c>
       <c r="D16">
-        <v>1.4909999999999999E-3</v>
+        <v>1.6260000000000001E-3</v>
       </c>
       <c r="E16">
-        <v>5.2440000000000004E-3</v>
+        <v>6.2199999999999998E-3</v>
       </c>
       <c r="F16">
-        <v>2.0192000000000002E-2</v>
+        <v>2.3864E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>3.6099999999999999E-4</v>
+        <v>5.6849999999999999E-4</v>
       </c>
       <c r="D17">
-        <v>1.4350000000000001E-3</v>
+        <v>1.8665000000000001E-3</v>
       </c>
       <c r="E17">
-        <v>5.1970000000000002E-3</v>
+        <v>6.6235E-3</v>
       </c>
       <c r="F17">
-        <v>2.0372999999999999E-2</v>
+        <v>2.5658E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>4.2400000000000001E-4</v>
+        <v>5.0799999999999999E-4</v>
       </c>
       <c r="D18">
-        <v>2.251E-3</v>
+        <v>1.4065E-3</v>
       </c>
       <c r="E18">
-        <v>6.1110000000000001E-3</v>
+        <v>5.1730000000000014E-3</v>
       </c>
       <c r="F18">
-        <v>2.3376000000000001E-2</v>
+        <v>2.5667499999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>4.2999999999999999E-4</v>
+        <v>6.4499999999999996E-4</v>
       </c>
       <c r="D19">
-        <v>2.4020000000000001E-3</v>
+        <v>2.199E-3</v>
       </c>
       <c r="E19">
-        <v>5.7390000000000002E-3</v>
+        <v>7.8965000000000007E-3</v>
       </c>
       <c r="F19">
-        <v>2.3647000000000001E-2</v>
+        <v>3.3105500000000003E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C20">
-        <v>6.3100000000000005E-4</v>
+        <v>6.7549999999999999E-4</v>
       </c>
       <c r="D20">
-        <v>2.0939999999999999E-3</v>
+        <v>2.2460000000000002E-3</v>
       </c>
       <c r="E20">
-        <v>8.1060000000000004E-3</v>
+        <v>8.3464999999999998E-3</v>
       </c>
       <c r="F20">
-        <v>2.4642000000000001E-2</v>
+        <v>3.6924999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>3.4400000000000001E-4</v>
+        <v>6.7700000000000008E-4</v>
       </c>
       <c r="D21">
-        <v>1.91E-3</v>
+        <v>2.9854999999999999E-3</v>
       </c>
       <c r="E21">
-        <v>6.2379999999999996E-3</v>
+        <v>1.2220999999999999E-2</v>
       </c>
       <c r="F21">
-        <v>2.4774999999999998E-2</v>
+        <v>6.835949999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C22">
-        <v>4.7899999999999999E-4</v>
+        <v>6.1600000000000001E-4</v>
       </c>
       <c r="D22">
-        <v>1.7600000000000001E-3</v>
+        <v>3.225E-3</v>
       </c>
       <c r="E22">
-        <v>6.6829999999999997E-3</v>
+        <v>2.1254499999999999E-2</v>
       </c>
       <c r="F22">
-        <v>2.4884E-2</v>
+        <v>0.154278</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>5.7899999999999998E-4</v>
+        <v>6.5499999999999998E-4</v>
       </c>
       <c r="D23">
-        <v>2.1589999999999999E-3</v>
+        <v>3.9170000000000003E-3</v>
       </c>
       <c r="E23">
-        <v>8.4239999999999992E-3</v>
+        <v>2.445E-2</v>
       </c>
       <c r="F23">
-        <v>2.4986999999999999E-2</v>
+        <v>0.1640665</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C24">
-        <v>3.4600000000000001E-4</v>
+        <v>1.3990000000000001E-3</v>
       </c>
       <c r="D24">
-        <v>1.9530000000000001E-3</v>
+        <v>7.1329999999999996E-3</v>
       </c>
       <c r="E24">
-        <v>6.2290000000000002E-3</v>
+        <v>5.2095000000000002E-2</v>
       </c>
       <c r="F24">
-        <v>2.5016E-2</v>
+        <v>0.34572049999999999</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C25">
-        <v>4.8999999999999998E-4</v>
+        <v>2.1699999999999999E-4</v>
       </c>
       <c r="D25">
-        <v>1.769E-3</v>
+        <v>4.0200000000000001E-4</v>
       </c>
       <c r="E25">
-        <v>6.4700000000000001E-3</v>
+        <v>1.0189999999999999E-3</v>
       </c>
       <c r="F25">
-        <v>2.5041999999999998E-2</v>
+        <v>1.6559999999999999E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C26">
-        <v>6.4300000000000002E-4</v>
+        <v>1.93E-4</v>
       </c>
       <c r="D26">
-        <v>1.32E-3</v>
+        <v>3.8699999999999997E-4</v>
       </c>
       <c r="E26">
-        <v>6.6740000000000002E-3</v>
+        <v>8.9599999999999999E-4</v>
       </c>
       <c r="F26">
-        <v>2.6119E-2</v>
+        <v>1.702E-3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C27">
-        <v>6.7000000000000002E-4</v>
+        <v>2.0100000000000001E-4</v>
       </c>
       <c r="D27">
-        <v>1.3760000000000001E-3</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="E27">
-        <v>6.6569999999999997E-3</v>
+        <v>9.59E-4</v>
       </c>
       <c r="F27">
-        <v>2.6290999999999998E-2</v>
+        <v>2.4729999999999999E-3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C28">
-        <v>9.9299999999999996E-4</v>
+        <v>3.6400000000000001E-4</v>
       </c>
       <c r="D28">
-        <v>1.6080000000000001E-3</v>
+        <v>7.8399999999999997E-4</v>
       </c>
       <c r="E28">
-        <v>5.646E-3</v>
+        <v>2.1450000000000002E-3</v>
       </c>
       <c r="F28">
-        <v>2.8292000000000001E-2</v>
+        <v>5.718E-3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C29">
-        <v>1.0610000000000001E-3</v>
+        <v>4.5300000000000001E-4</v>
       </c>
       <c r="D29">
-        <v>1.6869999999999999E-3</v>
+        <v>1.0809999999999999E-3</v>
       </c>
       <c r="E29">
-        <v>5.5669999999999999E-3</v>
+        <v>5.3039999999999997E-3</v>
       </c>
       <c r="F29">
-        <v>2.8461E-2</v>
+        <v>7.9500000000000005E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C30">
-        <v>1.1169999999999999E-3</v>
+        <v>4.6700000000000002E-4</v>
       </c>
       <c r="D30">
-        <v>1.56E-3</v>
+        <v>1.098E-3</v>
       </c>
       <c r="E30">
-        <v>6.0350000000000004E-3</v>
+        <v>5.2989999999999999E-3</v>
       </c>
       <c r="F30">
-        <v>2.8669E-2</v>
+        <v>8.7559999999999999E-3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1216,39 +1311,39 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C31">
-        <v>1.158E-3</v>
+        <v>4.1100000000000002E-4</v>
       </c>
       <c r="D31">
-        <v>1.993E-3</v>
+        <v>1.2355000000000001E-3</v>
       </c>
       <c r="E31">
-        <v>6.1919999999999996E-3</v>
+        <v>3.8514999999999999E-3</v>
       </c>
       <c r="F31">
-        <v>2.9114000000000001E-2</v>
+        <v>1.4409E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C32">
-        <v>6.5099999999999999E-4</v>
+        <v>3.725E-4</v>
       </c>
       <c r="D32">
-        <v>2.5490000000000001E-3</v>
+        <v>1.0685E-3</v>
       </c>
       <c r="E32">
-        <v>7.7889999999999999E-3</v>
+        <v>3.8530000000000001E-3</v>
       </c>
       <c r="F32">
-        <v>2.9186E-2</v>
+        <v>1.6653500000000002E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1256,19 +1351,19 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33">
-        <v>6.6500000000000001E-4</v>
+        <v>2.8600000000000001E-4</v>
       </c>
       <c r="D33">
-        <v>2.738E-3</v>
+        <v>1.487E-3</v>
       </c>
       <c r="E33">
-        <v>1.0843E-2</v>
+        <v>4.2770000000000004E-3</v>
       </c>
       <c r="F33">
-        <v>2.9353000000000001E-2</v>
+        <v>1.6674999999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1276,39 +1371,39 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C34">
-        <v>6.6500000000000001E-4</v>
+        <v>3.9649999999999999E-4</v>
       </c>
       <c r="D34">
-        <v>2.6419999999999998E-3</v>
+        <v>1.1215000000000001E-3</v>
       </c>
       <c r="E34">
-        <v>8.1089999999999999E-3</v>
+        <v>3.9899999999999996E-3</v>
       </c>
       <c r="F34">
-        <v>2.9467E-2</v>
+        <v>1.6768499999999999E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C35">
-        <v>6.4700000000000001E-4</v>
+        <v>4.15E-4</v>
       </c>
       <c r="D35">
-        <v>2.4299999999999999E-3</v>
+        <v>1.225E-3</v>
       </c>
       <c r="E35">
-        <v>8.123E-3</v>
+        <v>4.64E-3</v>
       </c>
       <c r="F35">
-        <v>2.9652999999999999E-2</v>
+        <v>1.7524000000000001E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1316,39 +1411,39 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C36">
-        <v>6.5399999999999996E-4</v>
+        <v>3.8099999999999999E-4</v>
       </c>
       <c r="D36">
-        <v>2.0219999999999999E-3</v>
+        <v>1.4959999999999999E-3</v>
       </c>
       <c r="E36">
-        <v>7.8630000000000002E-3</v>
+        <v>5.4289999999999998E-3</v>
       </c>
       <c r="F36">
-        <v>3.2598000000000002E-2</v>
+        <v>2.0681999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C37">
-        <v>6.5399999999999996E-4</v>
+        <v>3.8999999999999999E-4</v>
       </c>
       <c r="D37">
-        <v>2.166E-3</v>
+        <v>1.431E-3</v>
       </c>
       <c r="E37">
-        <v>7.8539999999999999E-3</v>
+        <v>5.6880000000000003E-3</v>
       </c>
       <c r="F37">
-        <v>3.2779000000000003E-2</v>
+        <v>2.2953000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1356,119 +1451,119 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C38">
-        <v>7.6800000000000002E-4</v>
+        <v>3.9899999999999999E-4</v>
       </c>
       <c r="D38">
-        <v>2.7829999999999999E-3</v>
+        <v>1.436E-3</v>
       </c>
       <c r="E38">
-        <v>9.2069999999999999E-3</v>
+        <v>5.9459999999999999E-3</v>
       </c>
       <c r="F38">
-        <v>3.8443999999999999E-2</v>
+        <v>2.3591999999999998E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C39">
-        <v>7.5799999999999999E-4</v>
+        <v>5.555E-4</v>
       </c>
       <c r="D39">
-        <v>2.7169999999999998E-3</v>
+        <v>1.495E-3</v>
       </c>
       <c r="E39">
-        <v>9.4610000000000007E-3</v>
+        <v>5.2880000000000002E-3</v>
       </c>
       <c r="F39">
-        <v>3.8759000000000002E-2</v>
+        <v>2.4281500000000001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C40">
-        <v>7.7200000000000001E-4</v>
+        <v>4.7199999999999998E-4</v>
       </c>
       <c r="D40">
-        <v>2.581E-3</v>
+        <v>1.789E-3</v>
       </c>
       <c r="E40">
-        <v>9.5029999999999993E-3</v>
+        <v>6.3969999999999999E-3</v>
       </c>
       <c r="F40">
-        <v>3.9579000000000003E-2</v>
+        <v>2.4531000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C41">
-        <v>7.5000000000000002E-4</v>
+        <v>6.0350000000000009E-4</v>
       </c>
       <c r="D41">
-        <v>2.5609999999999999E-3</v>
+        <v>1.9124999999999999E-3</v>
       </c>
       <c r="E41">
-        <v>9.325E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="F41">
-        <v>3.9757000000000001E-2</v>
+        <v>2.5815500000000002E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C42">
-        <v>5.5999999999999995E-4</v>
+        <v>5.04E-4</v>
       </c>
       <c r="D42">
-        <v>1.7210000000000001E-3</v>
+        <v>2.0569999999999998E-3</v>
       </c>
       <c r="E42">
-        <v>9.7429999999999999E-3</v>
+        <v>6.7910000000000002E-3</v>
       </c>
       <c r="F42">
-        <v>6.3858999999999999E-2</v>
+        <v>2.6415000000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C43">
-        <v>6.3699999999999998E-4</v>
+        <v>5.0500000000000002E-4</v>
       </c>
       <c r="D43">
-        <v>1.9580000000000001E-3</v>
+        <v>2.0539999999999998E-3</v>
       </c>
       <c r="E43">
-        <v>9.3439999999999999E-3</v>
+        <v>7.3280000000000003E-3</v>
       </c>
       <c r="F43">
-        <v>6.5931000000000003E-2</v>
+        <v>2.8284E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1476,79 +1571,79 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C44">
-        <v>9.8400000000000007E-4</v>
+        <v>5.6149999999999993E-4</v>
       </c>
       <c r="D44">
-        <v>3.6540000000000001E-3</v>
+        <v>2.2899999999999999E-3</v>
       </c>
       <c r="E44">
-        <v>1.3447000000000001E-2</v>
+        <v>8.6525000000000005E-3</v>
       </c>
       <c r="F44">
-        <v>6.7200999999999997E-2</v>
+        <v>2.9191999999999999E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C45">
-        <v>1.06E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="D45">
-        <v>4.2529999999999998E-3</v>
+        <v>2.202E-3</v>
       </c>
       <c r="E45">
-        <v>1.4149E-2</v>
+        <v>7.9959999999999996E-3</v>
       </c>
       <c r="F45">
-        <v>6.7395999999999998E-2</v>
+        <v>3.2381500000000001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C46">
-        <v>1.0330000000000001E-3</v>
+        <v>7.2900000000000005E-4</v>
       </c>
       <c r="D46">
-        <v>3.5209999999999998E-3</v>
+        <v>2.3549999999999999E-3</v>
       </c>
       <c r="E46">
-        <v>1.456E-2</v>
+        <v>8.933E-3</v>
       </c>
       <c r="F46">
-        <v>6.8682999999999994E-2</v>
+        <v>3.5885E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C47">
-        <v>1.181E-3</v>
+        <v>7.3050000000000003E-4</v>
       </c>
       <c r="D47">
-        <v>3.3040000000000001E-3</v>
+        <v>1.4505E-3</v>
       </c>
       <c r="E47">
-        <v>1.4432E-2</v>
+        <v>6.2769999999999996E-3</v>
       </c>
       <c r="F47">
-        <v>6.9245000000000001E-2</v>
+        <v>6.1905000000000002E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1556,59 +1651,59 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C48">
-        <v>6.5799999999999995E-4</v>
+        <v>7.1100000000000004E-4</v>
       </c>
       <c r="D48">
-        <v>1.9109999999999999E-3</v>
+        <v>2.6565E-3</v>
       </c>
       <c r="E48">
-        <v>1.0439E-2</v>
+        <v>1.2671999999999999E-2</v>
       </c>
       <c r="F48">
-        <v>7.3524999999999993E-2</v>
+        <v>7.0937500000000001E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C49">
-        <v>5.6899999999999995E-4</v>
+        <v>6.3750000000000005E-4</v>
       </c>
       <c r="D49">
-        <v>1.903E-3</v>
+        <v>3.3195E-3</v>
       </c>
       <c r="E49">
-        <v>1.0108000000000001E-2</v>
+        <v>2.0787E-2</v>
       </c>
       <c r="F49">
-        <v>7.3998999999999995E-2</v>
+        <v>0.15514800000000001</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C50">
-        <v>1.341E-3</v>
+        <v>2.5399999999999999E-4</v>
       </c>
       <c r="D50">
-        <v>3.6470000000000001E-3</v>
+        <v>4.37E-4</v>
       </c>
       <c r="E50">
-        <v>1.4533000000000001E-2</v>
+        <v>1.1310000000000001E-3</v>
       </c>
       <c r="F50">
-        <v>7.9482999999999998E-2</v>
+        <v>1.89E-3</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1616,119 +1711,119 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C51">
-        <v>1.8079999999999999E-3</v>
+        <v>3.0299999999999999E-4</v>
       </c>
       <c r="D51">
-        <v>3.2490000000000002E-3</v>
+        <v>4.9100000000000001E-4</v>
       </c>
       <c r="E51">
-        <v>1.4331E-2</v>
+        <v>1.3079999999999999E-3</v>
       </c>
       <c r="F51">
-        <v>7.9762E-2</v>
+        <v>2.591E-3</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C52">
-        <v>1.3259999999999999E-3</v>
+        <v>2.43E-4</v>
       </c>
       <c r="D52">
-        <v>3.1589999999999999E-3</v>
+        <v>4.8200000000000001E-4</v>
       </c>
       <c r="E52">
-        <v>1.4408000000000001E-2</v>
+        <v>1.0889999999999999E-3</v>
       </c>
       <c r="F52">
-        <v>7.9988000000000004E-2</v>
+        <v>2.6180000000000001E-3</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C53">
-        <v>1.8240000000000001E-3</v>
+        <v>4.3899999999999999E-4</v>
       </c>
       <c r="D53">
-        <v>3.1289999999999998E-3</v>
+        <v>8.3699999999999996E-4</v>
       </c>
       <c r="E53">
-        <v>1.448E-2</v>
+        <v>2.3860000000000001E-3</v>
       </c>
       <c r="F53">
-        <v>8.0625000000000002E-2</v>
+        <v>5.6680000000000003E-3</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C54">
-        <v>7.9199999999999995E-4</v>
+        <v>3.6900000000000002E-4</v>
       </c>
       <c r="D54">
-        <v>2.2750000000000001E-3</v>
+        <v>8.61E-4</v>
       </c>
       <c r="E54">
-        <v>1.2559000000000001E-2</v>
+        <v>2.9190000000000002E-3</v>
       </c>
       <c r="F54">
-        <v>8.3899000000000001E-2</v>
+        <v>5.7879999999999997E-3</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C55">
-        <v>5.3799999999999996E-4</v>
+        <v>4.9799999999999996E-4</v>
       </c>
       <c r="D55">
-        <v>2.2070000000000002E-3</v>
+        <v>8.7100000000000003E-4</v>
       </c>
       <c r="E55">
-        <v>1.2744E-2</v>
+        <v>4.5909999999999996E-3</v>
       </c>
       <c r="F55">
-        <v>8.4001999999999993E-2</v>
+        <v>6.5269999999999998E-3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C56">
-        <v>6.2299999999999996E-4</v>
+        <v>4.8899999999999996E-4</v>
       </c>
       <c r="D56">
-        <v>2.4529999999999999E-3</v>
+        <v>1.1789999999999999E-3</v>
       </c>
       <c r="E56">
-        <v>1.3067E-2</v>
+        <v>4.8739999999999999E-3</v>
       </c>
       <c r="F56">
-        <v>8.7554999999999994E-2</v>
+        <v>8.5039999999999994E-3</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1736,185 +1831,825 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C57">
-        <v>6.0700000000000001E-4</v>
+        <v>4.2700000000000002E-4</v>
       </c>
       <c r="D57">
-        <v>2.6570000000000001E-3</v>
+        <v>1.212E-3</v>
       </c>
       <c r="E57">
-        <v>1.3589E-2</v>
+        <v>3.8370000000000001E-3</v>
       </c>
       <c r="F57">
-        <v>9.1661000000000006E-2</v>
+        <v>1.4362E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C58">
-        <v>1.7470000000000001E-3</v>
+        <v>4.7800000000000002E-4</v>
       </c>
       <c r="D58">
-        <v>4.7190000000000001E-3</v>
+        <v>1.225E-3</v>
       </c>
       <c r="E58">
-        <v>2.8559999999999999E-2</v>
+        <v>4.0920000000000002E-3</v>
       </c>
       <c r="F58">
-        <v>0.19122500000000001</v>
+        <v>1.4538499999999999E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="C59">
-        <v>1.81E-3</v>
+        <v>3.1799999999999998E-4</v>
       </c>
       <c r="D59">
-        <v>4.3119999999999999E-3</v>
+        <v>1.544E-3</v>
       </c>
       <c r="E59">
-        <v>2.8511000000000002E-2</v>
+        <v>4.4669999999999996E-3</v>
       </c>
       <c r="F59">
-        <v>0.193415</v>
+        <v>1.6605000000000002E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C60">
-        <v>1.6440000000000001E-3</v>
+        <v>4.0200000000000001E-4</v>
       </c>
       <c r="D60">
-        <v>4.9199999999999999E-3</v>
+        <v>1.1425000000000001E-3</v>
       </c>
       <c r="E60">
-        <v>2.861E-2</v>
+        <v>4.0064999999999996E-3</v>
       </c>
       <c r="F60">
-        <v>0.19576099999999999</v>
+        <v>1.68185E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C61">
-        <v>1.6590000000000001E-3</v>
+        <v>2.9599999999999998E-4</v>
       </c>
       <c r="D61">
-        <v>4.4039999999999999E-3</v>
+        <v>1.516E-3</v>
       </c>
       <c r="E61">
-        <v>2.8621000000000001E-2</v>
+        <v>5.5500000000000002E-3</v>
       </c>
       <c r="F61">
-        <v>0.196573</v>
+        <v>2.0650000000000002E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="C62">
-        <v>1.9499999999999999E-3</v>
+        <v>4.4200000000000001E-4</v>
       </c>
       <c r="D62">
-        <v>7.1479999999999998E-3</v>
+        <v>1.6379999999999999E-3</v>
       </c>
       <c r="E62">
-        <v>5.8680999999999997E-2</v>
+        <v>5.3740000000000003E-3</v>
       </c>
       <c r="F62">
-        <v>0.39416499999999999</v>
+        <v>2.1016E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C63">
-        <v>1.9419999999999999E-3</v>
+        <v>4.17E-4</v>
       </c>
       <c r="D63">
-        <v>7.0920000000000002E-3</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="E63">
-        <v>5.8515999999999999E-2</v>
+        <v>5.6169999999999996E-3</v>
       </c>
       <c r="F63">
-        <v>0.398372</v>
+        <v>2.1059999999999999E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C64">
-        <v>2.3700000000000001E-3</v>
+        <v>4.28E-4</v>
       </c>
       <c r="D64">
-        <v>7.9179999999999997E-3</v>
+        <v>1.637E-3</v>
       </c>
       <c r="E64">
-        <v>6.3824000000000006E-2</v>
+        <v>5.7499999999999999E-3</v>
       </c>
       <c r="F64">
-        <v>0.41483399999999998</v>
+        <v>2.1302000000000001E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C65">
-        <v>2.3779999999999999E-3</v>
+        <v>4.1399999999999998E-4</v>
       </c>
       <c r="D65">
-        <v>7.9909999999999998E-3</v>
+        <v>1.5250000000000001E-3</v>
       </c>
       <c r="E65">
-        <v>6.3203999999999996E-2</v>
+        <v>5.5669999999999999E-3</v>
       </c>
       <c r="F65">
-        <v>0.41554099999999999</v>
+        <v>2.1595E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66">
+        <v>4.1300000000000001E-4</v>
+      </c>
+      <c r="D66">
+        <v>1.5380000000000001E-3</v>
+      </c>
+      <c r="E66">
+        <v>6.1040000000000001E-3</v>
+      </c>
+      <c r="F66">
+        <v>2.4171000000000002E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>5.2899999999999996E-4</v>
+      </c>
+      <c r="D67">
+        <v>2.1909999999999998E-3</v>
+      </c>
+      <c r="E67">
+        <v>6.7920000000000003E-3</v>
+      </c>
+      <c r="F67">
+        <v>2.6606000000000001E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68">
+        <v>5.1599999999999997E-4</v>
+      </c>
+      <c r="D68">
+        <v>2.1919999999999999E-3</v>
+      </c>
+      <c r="E68">
+        <v>7.5119999999999996E-3</v>
+      </c>
+      <c r="F68">
+        <v>2.6721000000000002E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69">
+        <v>5.3399999999999997E-4</v>
+      </c>
+      <c r="D69">
+        <v>1.7650000000000001E-3</v>
+      </c>
+      <c r="E69">
+        <v>6.9189999999999998E-3</v>
+      </c>
+      <c r="F69">
+        <v>2.8471E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70">
+        <v>5.3200000000000003E-4</v>
+      </c>
+      <c r="D70">
+        <v>2.0639999999999999E-3</v>
+      </c>
+      <c r="E70">
+        <v>7.5100000000000002E-3</v>
+      </c>
+      <c r="F70">
+        <v>2.8577999999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71">
+        <v>6.1749999999999999E-4</v>
+      </c>
+      <c r="D71">
+        <v>2.3904999999999998E-3</v>
+      </c>
+      <c r="E71">
+        <v>8.8229999999999992E-3</v>
+      </c>
+      <c r="F71">
+        <v>3.00805E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72">
+        <v>7.2300000000000001E-4</v>
+      </c>
+      <c r="D72">
+        <v>1.245E-3</v>
+      </c>
+      <c r="E72">
+        <v>3.9690000000000003E-3</v>
+      </c>
+      <c r="F72">
+        <v>3.2766999999999998E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73">
+        <v>7.6999999999999996E-4</v>
+      </c>
+      <c r="D73">
+        <v>2.428E-3</v>
+      </c>
+      <c r="E73">
+        <v>9.5110000000000004E-3</v>
+      </c>
+      <c r="F73">
+        <v>3.7404E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74">
+        <v>7.5549999999999999E-4</v>
+      </c>
+      <c r="D74">
+        <v>1.5544999999999999E-3</v>
+      </c>
+      <c r="E74">
+        <v>6.6119999999999998E-3</v>
+      </c>
+      <c r="F74">
+        <v>6.3765999999999989E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75">
+        <v>2.8800000000000001E-4</v>
+      </c>
+      <c r="D75">
+        <v>5.7399999999999997E-4</v>
+      </c>
+      <c r="E75">
+        <v>1.2750000000000001E-3</v>
+      </c>
+      <c r="F75">
+        <v>2.908E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76">
+        <v>4.0099999999999999E-4</v>
+      </c>
+      <c r="D76">
+        <v>9.3999999999999997E-4</v>
+      </c>
+      <c r="E76">
+        <v>2.2260000000000001E-3</v>
+      </c>
+      <c r="F76">
+        <v>6.1630000000000001E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77">
+        <v>4.9600000000000002E-4</v>
+      </c>
+      <c r="D77">
+        <v>9.7599999999999998E-4</v>
+      </c>
+      <c r="E77">
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="F77">
+        <v>6.6969999999999998E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78">
+        <v>4.1199999999999999E-4</v>
+      </c>
+      <c r="D78">
+        <v>9.1799999999999998E-4</v>
+      </c>
+      <c r="E78">
+        <v>3.1849999999999999E-3</v>
+      </c>
+      <c r="F78">
+        <v>6.8799999999999998E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79">
+        <v>4.5249999999999999E-4</v>
+      </c>
+      <c r="D79">
+        <v>1.2455000000000001E-3</v>
+      </c>
+      <c r="E79">
+        <v>3.9674999999999997E-3</v>
+      </c>
+      <c r="F79">
+        <v>1.4545000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80">
+        <v>4.9299999999999995E-4</v>
+      </c>
+      <c r="D80">
+        <v>1.6459999999999999E-3</v>
+      </c>
+      <c r="E80">
+        <v>5.5170000000000002E-3</v>
+      </c>
+      <c r="F80">
+        <v>2.0767999999999998E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81">
+        <v>3.4699999999999998E-4</v>
+      </c>
+      <c r="D81">
+        <v>1.57E-3</v>
+      </c>
+      <c r="E81">
+        <v>5.6480000000000002E-3</v>
+      </c>
+      <c r="F81">
+        <v>2.0851999999999999E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82">
+        <v>4.7600000000000002E-4</v>
+      </c>
+      <c r="D82">
+        <v>1.6559999999999999E-3</v>
+      </c>
+      <c r="E82">
+        <v>5.6820000000000004E-3</v>
+      </c>
+      <c r="F82">
+        <v>2.1225000000000001E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83">
+        <v>4.84E-4</v>
+      </c>
+      <c r="D83">
+        <v>1.7619999999999999E-3</v>
+      </c>
+      <c r="E83">
+        <v>7.136E-3</v>
+      </c>
+      <c r="F83">
+        <v>2.1679E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84">
+        <v>4.3600000000000003E-4</v>
+      </c>
+      <c r="D84">
+        <v>1.606E-3</v>
+      </c>
+      <c r="E84">
+        <v>5.875E-3</v>
+      </c>
+      <c r="F84">
+        <v>2.1850000000000001E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85">
+        <v>5.5099999999999995E-4</v>
+      </c>
+      <c r="D85">
+        <v>1.9750000000000002E-3</v>
+      </c>
+      <c r="E85">
+        <v>6.228E-3</v>
+      </c>
+      <c r="F85">
+        <v>2.2055000000000002E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86">
+        <v>4.3100000000000001E-4</v>
+      </c>
+      <c r="D86">
+        <v>1.7440000000000001E-3</v>
+      </c>
+      <c r="E86">
+        <v>5.9259999999999998E-3</v>
+      </c>
+      <c r="F86">
+        <v>2.2764E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87">
+        <v>2.9500000000000001E-4</v>
+      </c>
+      <c r="D87">
+        <v>1.817E-3</v>
+      </c>
+      <c r="E87">
+        <v>5.8820000000000001E-3</v>
+      </c>
+      <c r="F87">
+        <v>2.5366E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88">
+        <v>4.9899999999999999E-4</v>
+      </c>
+      <c r="D88">
+        <v>2.4789999999999999E-3</v>
+      </c>
+      <c r="E88">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="F88">
+        <v>2.7014E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89">
+        <v>5.8500000000000002E-4</v>
+      </c>
+      <c r="D89">
+        <v>1.841E-3</v>
+      </c>
+      <c r="E89">
+        <v>7.1029999999999999E-3</v>
+      </c>
+      <c r="F89">
+        <v>2.8434000000000001E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90">
+        <v>7.7800000000000005E-4</v>
+      </c>
+      <c r="D90">
+        <v>1.3649999999999999E-3</v>
+      </c>
+      <c r="E90">
+        <v>4.2119999999999996E-3</v>
+      </c>
+      <c r="F90">
+        <v>3.3501000000000003E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91">
+        <v>4.46E-4</v>
+      </c>
+      <c r="D91">
+        <v>9.9099999999999991E-4</v>
+      </c>
+      <c r="E91">
+        <v>2.542E-3</v>
+      </c>
+      <c r="F91">
+        <v>7.1729999999999997E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D92">
+        <v>1.887E-3</v>
+      </c>
+      <c r="E92">
+        <v>7.2129999999999998E-3</v>
+      </c>
+      <c r="F92">
+        <v>2.1439E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93">
+        <v>6.02E-4</v>
+      </c>
+      <c r="D93">
+        <v>1.902E-3</v>
+      </c>
+      <c r="E93">
+        <v>5.8240000000000002E-3</v>
+      </c>
+      <c r="F93">
+        <v>2.1739000000000001E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="D94">
+        <v>1.9289999999999999E-3</v>
+      </c>
+      <c r="E94">
+        <v>6.4009999999999996E-3</v>
+      </c>
+      <c r="F94">
+        <v>2.3067000000000001E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95">
+        <v>4.4000000000000002E-4</v>
+      </c>
+      <c r="D95">
+        <v>1.75E-3</v>
+      </c>
+      <c r="E95">
+        <v>6.0870000000000004E-3</v>
+      </c>
+      <c r="F95">
+        <v>2.3192000000000001E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96">
+        <v>3.4499999999999998E-4</v>
+      </c>
+      <c r="D96">
+        <v>2.1419999999999998E-3</v>
+      </c>
+      <c r="E96">
+        <v>6.254E-3</v>
+      </c>
+      <c r="F96">
+        <v>2.5516E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97">
+        <v>4.0200000000000001E-4</v>
+      </c>
+      <c r="D97">
+        <v>1.9710000000000001E-3</v>
+      </c>
+      <c r="E97">
+        <v>6.6080000000000002E-3</v>
+      </c>
+      <c r="F97">
+        <v>2.2882E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F65" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F65">
-      <sortCondition ref="F1:F65"/>
+  <autoFilter ref="A1:F97" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F97">
+      <sortCondition ref="A1:A97"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1923,7 +2658,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2117,16 +2852,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F10">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2137,16 +2872,16 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2157,16 +2892,16 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>152</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2177,16 +2912,16 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2197,16 +2932,16 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="F14">
-        <v>190</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2217,7 +2952,7 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>46</v>
@@ -2226,7 +2961,7 @@
         <v>92</v>
       </c>
       <c r="F15">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2237,16 +2972,16 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2257,16 +2992,16 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>152</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2277,16 +3012,16 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2297,16 +3032,16 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2317,16 +3052,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2337,16 +3072,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2357,16 +3092,16 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2377,36 +3112,36 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2423,10 +3158,10 @@
         <v>40</v>
       </c>
       <c r="E25">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F25">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2437,16 +3172,16 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="F26">
-        <v>184</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2457,16 +3192,16 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2480,13 +3215,13 @@
         <v>21</v>
       </c>
       <c r="D28">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E28">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F28">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2497,16 +3232,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2517,16 +3252,16 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2537,16 +3272,16 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2557,16 +3292,16 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="F32">
-        <v>184</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2577,16 +3312,16 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2597,16 +3332,16 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2617,16 +3352,16 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E35">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F35">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2637,16 +3372,16 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2657,16 +3392,16 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E37">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F37">
-        <v>11</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2677,16 +3412,16 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2737,16 +3472,16 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2757,16 +3492,16 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F42">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2777,21 +3512,21 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
@@ -2800,113 +3535,113 @@
         <v>6</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F44">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F45">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
       </c>
       <c r="C46">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D46">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E46">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="F46">
-        <v>184</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E48">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D49">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E49">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F49">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2917,16 +3652,16 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E50">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F50">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2937,16 +3672,16 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E51">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="F51">
-        <v>15</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2960,13 +3695,13 @@
         <v>6</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2977,16 +3712,16 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E53">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F53">
-        <v>15</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2997,16 +3732,16 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -3017,16 +3752,16 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -3037,16 +3772,16 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -3057,16 +3792,16 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D57">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E57">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F57">
-        <v>15</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3077,27 +3812,27 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
         <v>63</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D59">
         <v>6</v>
@@ -3111,7 +3846,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
         <v>64</v>
@@ -3120,113 +3855,753 @@
         <v>8</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E60">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
       </c>
       <c r="C62">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E62">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F62">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D63">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E63">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F63">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
         <v>68</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F64">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
       </c>
       <c r="C65">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D65">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E65">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F65">
-        <v>6</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>7</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67">
+        <v>9</v>
+      </c>
+      <c r="D67">
+        <v>15</v>
+      </c>
+      <c r="E67">
+        <v>16</v>
+      </c>
+      <c r="F67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>15</v>
+      </c>
+      <c r="E69">
+        <v>16</v>
+      </c>
+      <c r="F69">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70">
+        <v>7</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>7</v>
+      </c>
+      <c r="E71">
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>7</v>
+      </c>
+      <c r="E72">
+        <v>7</v>
+      </c>
+      <c r="F72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>15</v>
+      </c>
+      <c r="E73">
+        <v>15</v>
+      </c>
+      <c r="F73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>6</v>
+      </c>
+      <c r="F74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>6</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>6</v>
+      </c>
+      <c r="F76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77">
+        <v>20</v>
+      </c>
+      <c r="D77">
+        <v>40</v>
+      </c>
+      <c r="E77">
+        <v>80</v>
+      </c>
+      <c r="F77">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78">
+        <v>8</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>7</v>
+      </c>
+      <c r="F78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>6</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>9</v>
+      </c>
+      <c r="E80">
+        <v>11</v>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81">
+        <v>15</v>
+      </c>
+      <c r="D81">
+        <v>13</v>
+      </c>
+      <c r="E81">
+        <v>13</v>
+      </c>
+      <c r="F81">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82">
+        <v>6</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>15</v>
+      </c>
+      <c r="E83">
+        <v>17</v>
+      </c>
+      <c r="F83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>7</v>
+      </c>
+      <c r="F84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85">
+        <v>12</v>
+      </c>
+      <c r="D85">
+        <v>15</v>
+      </c>
+      <c r="E85">
+        <v>14</v>
+      </c>
+      <c r="F85">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86">
+        <v>6</v>
+      </c>
+      <c r="D86">
+        <v>9</v>
+      </c>
+      <c r="E86">
+        <v>9</v>
+      </c>
+      <c r="F86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87">
+        <v>12</v>
+      </c>
+      <c r="D87">
+        <v>15</v>
+      </c>
+      <c r="E87">
+        <v>15</v>
+      </c>
+      <c r="F87">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89">
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+      <c r="D90">
+        <v>7</v>
+      </c>
+      <c r="E90">
+        <v>7</v>
+      </c>
+      <c r="F90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>6</v>
+      </c>
+      <c r="F91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92">
+        <v>9</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93">
+        <v>6</v>
+      </c>
+      <c r="D93">
+        <v>9</v>
+      </c>
+      <c r="E93">
+        <v>7</v>
+      </c>
+      <c r="F93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94">
+        <v>12</v>
+      </c>
+      <c r="D94">
+        <v>15</v>
+      </c>
+      <c r="E94">
+        <v>15</v>
+      </c>
+      <c r="F94">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95">
+        <v>7</v>
+      </c>
+      <c r="D95">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96">
+        <v>6</v>
+      </c>
+      <c r="D96">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>6</v>
+      </c>
+      <c r="F96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97">
+        <v>6</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>6</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3236,7 +4611,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3390,16 +4765,16 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="E8">
-        <v>598</v>
+        <v>526</v>
       </c>
       <c r="F8">
-        <v>1304</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -3430,16 +4805,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="E10">
-        <v>344</v>
+        <v>210</v>
       </c>
       <c r="F10">
-        <v>733</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -3450,16 +4825,16 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="E11">
-        <v>402</v>
+        <v>344</v>
       </c>
       <c r="F11">
-        <v>1001</v>
+        <v>733</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -3470,16 +4845,16 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E12">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="F12">
-        <v>1043</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -3490,16 +4865,16 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D13">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="E13">
-        <v>213</v>
+        <v>406</v>
       </c>
       <c r="F13">
-        <v>469</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -3516,10 +4891,10 @@
         <v>92</v>
       </c>
       <c r="E14">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F14">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -3530,16 +4905,16 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="E15">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="F15">
-        <v>594</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -3550,16 +4925,16 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D16">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="E16">
-        <v>419</v>
+        <v>280</v>
       </c>
       <c r="F16">
-        <v>790</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -3570,16 +4945,16 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E17">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="F17">
-        <v>852</v>
+        <v>790</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3590,16 +4965,16 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>482</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>935</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -3610,16 +4985,16 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -3630,16 +5005,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3650,16 +5025,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -3670,13 +5045,13 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22">
         <v>10</v>
       </c>
       <c r="E22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22">
         <v>12</v>
@@ -3690,36 +5065,36 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>266</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>598</v>
+        <v>13</v>
       </c>
       <c r="F23">
-        <v>1304</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D24">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="E24">
-        <v>239</v>
+        <v>526</v>
       </c>
       <c r="F24">
-        <v>524</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3730,16 +5105,16 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E25">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="F25">
-        <v>522</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -3750,16 +5125,16 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D26">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E26">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="F26">
-        <v>589</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -3770,16 +5145,16 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D27">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="E27">
-        <v>344</v>
+        <v>229</v>
       </c>
       <c r="F27">
-        <v>733</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -3790,16 +5165,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D28">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E28">
-        <v>345</v>
+        <v>276</v>
       </c>
       <c r="F28">
-        <v>733</v>
+        <v>589</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -3810,16 +5185,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D29">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="E29">
-        <v>425</v>
+        <v>210</v>
       </c>
       <c r="F29">
-        <v>1043</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -3830,16 +5205,16 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D30">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="E30">
-        <v>215</v>
+        <v>344</v>
       </c>
       <c r="F30">
-        <v>470</v>
+        <v>733</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -3850,16 +5225,16 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D31">
         <v>120</v>
       </c>
       <c r="E31">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F31">
-        <v>594</v>
+        <v>743</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -3870,16 +5245,16 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E32">
-        <v>285</v>
+        <v>210</v>
       </c>
       <c r="F32">
-        <v>599</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -3890,16 +5265,16 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D33">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="E33">
-        <v>435</v>
+        <v>210</v>
       </c>
       <c r="F33">
-        <v>852</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -3910,16 +5285,16 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="E34">
-        <v>14</v>
+        <v>406</v>
       </c>
       <c r="F34">
-        <v>14</v>
+        <v>783</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -3930,16 +5305,16 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D35">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="E35">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="F35">
-        <v>14</v>
+        <v>461</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -3950,16 +5325,16 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>594</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -3970,16 +5345,16 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="E37">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="F37">
-        <v>15</v>
+        <v>616</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -3990,16 +5365,16 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>482</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>935</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -4010,16 +5385,16 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E39">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F39">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -4030,16 +5405,16 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F40">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -4050,16 +5425,16 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E41">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F41">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -4070,16 +5445,16 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D42">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E42">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F42">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -4090,121 +5465,121 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E43">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F43">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
       </c>
       <c r="C44">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D44">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="E44">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="F44">
-        <v>522</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
       <c r="C45">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>276</v>
+        <v>7</v>
       </c>
       <c r="F45">
-        <v>589</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
       </c>
       <c r="C46">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D46">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="F46">
-        <v>591</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
       </c>
       <c r="C47">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="E47">
-        <v>345</v>
+        <v>13</v>
       </c>
       <c r="F47">
-        <v>733</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
       </c>
       <c r="C48">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D48">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="E48">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="F48">
-        <v>599</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
@@ -4213,13 +5588,13 @@
         <v>12</v>
       </c>
       <c r="D49">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F49">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -4230,16 +5605,16 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D50">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E50">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="F50">
-        <v>12</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -4250,16 +5625,16 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D51">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="E51">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="F51">
-        <v>14</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -4270,16 +5645,16 @@
         <v>56</v>
       </c>
       <c r="C52">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D52">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="E52">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="F52">
-        <v>14</v>
+        <v>490</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -4290,16 +5665,16 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D53">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E53">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="F53">
-        <v>13</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -4310,16 +5685,16 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D54">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="E54">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c r="F54">
-        <v>15</v>
+        <v>589</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -4330,16 +5705,16 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D55">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E55">
-        <v>7</v>
+        <v>266</v>
       </c>
       <c r="F55">
-        <v>8</v>
+        <v>676</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -4350,16 +5725,16 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="E56">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="F56">
-        <v>9</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -4370,16 +5745,16 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="E57">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="F57">
-        <v>9</v>
+        <v>434</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -4390,61 +5765,61 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D58">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="E58">
-        <v>13</v>
+        <v>283</v>
       </c>
       <c r="F58">
-        <v>13</v>
+        <v>743</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
         <v>63</v>
       </c>
       <c r="C59">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D59">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="E59">
-        <v>282</v>
+        <v>210</v>
       </c>
       <c r="F59">
-        <v>591</v>
+        <v>434</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
         <v>64</v>
       </c>
       <c r="C60">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D60">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="E60">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="F60">
-        <v>12</v>
+        <v>616</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
@@ -4453,10 +5828,10 @@
         <v>12</v>
       </c>
       <c r="D61">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E61">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F61">
         <v>14</v>
@@ -4464,19 +5839,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
       </c>
       <c r="C62">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E62">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F62">
         <v>15</v>
@@ -4484,53 +5859,53 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
       </c>
       <c r="C63">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E63">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F63">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
         <v>68</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D64">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E64">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F64">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
       </c>
       <c r="C65">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65">
         <v>14</v>
@@ -4539,6 +5914,646 @@
         <v>14</v>
       </c>
       <c r="F65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>16</v>
+      </c>
+      <c r="D66">
+        <v>18</v>
+      </c>
+      <c r="E66">
+        <v>19</v>
+      </c>
+      <c r="F66">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67">
+        <v>15</v>
+      </c>
+      <c r="D67">
+        <v>14</v>
+      </c>
+      <c r="E67">
+        <v>15</v>
+      </c>
+      <c r="F67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <v>16</v>
+      </c>
+      <c r="E69">
+        <v>15</v>
+      </c>
+      <c r="F69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70">
+        <v>15</v>
+      </c>
+      <c r="E70">
+        <v>15</v>
+      </c>
+      <c r="F70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>7</v>
+      </c>
+      <c r="E71">
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72">
+        <v>7</v>
+      </c>
+      <c r="D72">
+        <v>8</v>
+      </c>
+      <c r="E72">
+        <v>9</v>
+      </c>
+      <c r="F72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>8</v>
+      </c>
+      <c r="E73">
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74">
+        <v>13</v>
+      </c>
+      <c r="D74">
+        <v>13</v>
+      </c>
+      <c r="E74">
+        <v>12</v>
+      </c>
+      <c r="F74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75">
+        <v>45</v>
+      </c>
+      <c r="D75">
+        <v>98</v>
+      </c>
+      <c r="E75">
+        <v>210</v>
+      </c>
+      <c r="F75">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76">
+        <v>54</v>
+      </c>
+      <c r="D76">
+        <v>98</v>
+      </c>
+      <c r="E76">
+        <v>210</v>
+      </c>
+      <c r="F76">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77">
+        <v>45</v>
+      </c>
+      <c r="D77">
+        <v>98</v>
+      </c>
+      <c r="E77">
+        <v>210</v>
+      </c>
+      <c r="F77">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78">
+        <v>57</v>
+      </c>
+      <c r="D78">
+        <v>109</v>
+      </c>
+      <c r="E78">
+        <v>266</v>
+      </c>
+      <c r="F78">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79">
+        <v>52</v>
+      </c>
+      <c r="D79">
+        <v>98</v>
+      </c>
+      <c r="E79">
+        <v>210</v>
+      </c>
+      <c r="F79">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80">
+        <v>12</v>
+      </c>
+      <c r="D80">
+        <v>11</v>
+      </c>
+      <c r="E80">
+        <v>14</v>
+      </c>
+      <c r="F80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81">
+        <v>13</v>
+      </c>
+      <c r="D81">
+        <v>17</v>
+      </c>
+      <c r="E81">
+        <v>15</v>
+      </c>
+      <c r="F81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>15</v>
+      </c>
+      <c r="E82">
+        <v>15</v>
+      </c>
+      <c r="F82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>12</v>
+      </c>
+      <c r="E83">
+        <v>16</v>
+      </c>
+      <c r="F83">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>17</v>
+      </c>
+      <c r="E84">
+        <v>18</v>
+      </c>
+      <c r="F84">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85">
+        <v>12</v>
+      </c>
+      <c r="D85">
+        <v>14</v>
+      </c>
+      <c r="E85">
+        <v>15</v>
+      </c>
+      <c r="F85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86">
+        <v>12</v>
+      </c>
+      <c r="D86">
+        <v>14</v>
+      </c>
+      <c r="E86">
+        <v>14</v>
+      </c>
+      <c r="F86">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87">
+        <v>9</v>
+      </c>
+      <c r="D87">
+        <v>17</v>
+      </c>
+      <c r="E87">
+        <v>16</v>
+      </c>
+      <c r="F87">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
+      <c r="D88">
+        <v>14</v>
+      </c>
+      <c r="E88">
+        <v>15</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89">
+        <v>9</v>
+      </c>
+      <c r="D89">
+        <v>16</v>
+      </c>
+      <c r="E89">
+        <v>15</v>
+      </c>
+      <c r="F89">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90">
+        <v>7</v>
+      </c>
+      <c r="D90">
+        <v>8</v>
+      </c>
+      <c r="E90">
+        <v>9</v>
+      </c>
+      <c r="F90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91">
+        <v>45</v>
+      </c>
+      <c r="D91">
+        <v>98</v>
+      </c>
+      <c r="E91">
+        <v>210</v>
+      </c>
+      <c r="F91">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92">
+        <v>13</v>
+      </c>
+      <c r="D92">
+        <v>17</v>
+      </c>
+      <c r="E92">
+        <v>15</v>
+      </c>
+      <c r="F92">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93">
+        <v>12</v>
+      </c>
+      <c r="D93">
+        <v>12</v>
+      </c>
+      <c r="E93">
+        <v>16</v>
+      </c>
+      <c r="F93">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94">
+        <v>9</v>
+      </c>
+      <c r="D94">
+        <v>17</v>
+      </c>
+      <c r="E94">
+        <v>17</v>
+      </c>
+      <c r="F94">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95">
+        <v>12</v>
+      </c>
+      <c r="D95">
+        <v>14</v>
+      </c>
+      <c r="E95">
+        <v>15</v>
+      </c>
+      <c r="F95">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96">
+        <v>9</v>
+      </c>
+      <c r="D96">
+        <v>17</v>
+      </c>
+      <c r="E96">
+        <v>16</v>
+      </c>
+      <c r="F96">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97">
+        <v>9</v>
+      </c>
+      <c r="D97">
+        <v>17</v>
+      </c>
+      <c r="E97">
+        <v>17</v>
+      </c>
+      <c r="F97">
         <v>15</v>
       </c>
     </row>
@@ -4549,7 +6564,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4703,16 +6718,16 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D8">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="E8">
-        <v>1243</v>
+        <v>1301</v>
       </c>
       <c r="F8">
-        <v>4967</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -4743,16 +6758,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="E10">
-        <v>611</v>
+        <v>80</v>
       </c>
       <c r="F10">
-        <v>2311</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4763,16 +6778,16 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E11">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="F11">
-        <v>2506</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4783,16 +6798,16 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E12">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="F12">
-        <v>2509</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -4803,16 +6818,16 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D13">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="E13">
-        <v>127</v>
+        <v>638</v>
       </c>
       <c r="F13">
-        <v>394</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -4826,13 +6841,13 @@
         <v>19</v>
       </c>
       <c r="D14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F14">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -4843,16 +6858,16 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E15">
-        <v>260</v>
+        <v>124</v>
       </c>
       <c r="F15">
-        <v>895</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -4863,16 +6878,16 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="E16">
-        <v>710</v>
+        <v>260</v>
       </c>
       <c r="F16">
-        <v>2816</v>
+        <v>895</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -4892,7 +6907,7 @@
         <v>710</v>
       </c>
       <c r="F17">
-        <v>2811</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -4903,16 +6918,16 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>710</v>
       </c>
       <c r="F18">
-        <v>16</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -4923,16 +6938,16 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -4943,16 +6958,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E20">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F20">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -4963,16 +6978,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E21">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -4983,7 +6998,7 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <v>29</v>
@@ -5003,36 +7018,36 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>316</v>
+        <v>29</v>
       </c>
       <c r="E23">
-        <v>1243</v>
+        <v>28</v>
       </c>
       <c r="F23">
-        <v>4967</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="D24">
-        <v>59</v>
+        <v>337</v>
       </c>
       <c r="E24">
-        <v>127</v>
+        <v>1301</v>
       </c>
       <c r="F24">
-        <v>277</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -5043,16 +7058,16 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E25">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="F25">
-        <v>275</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -5063,16 +7078,16 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="E26">
-        <v>365</v>
+        <v>127</v>
       </c>
       <c r="F26">
-        <v>1128</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -5083,16 +7098,16 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="E27">
-        <v>611</v>
+        <v>119</v>
       </c>
       <c r="F27">
-        <v>2311</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -5103,16 +7118,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D28">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="E28">
-        <v>615</v>
+        <v>365</v>
       </c>
       <c r="F28">
-        <v>2311</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -5123,16 +7138,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="E29">
-        <v>624</v>
+        <v>80</v>
       </c>
       <c r="F29">
-        <v>2509</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -5143,16 +7158,16 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D30">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="E30">
-        <v>131</v>
+        <v>611</v>
       </c>
       <c r="F30">
-        <v>402</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -5163,16 +7178,16 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D31">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="E31">
-        <v>260</v>
+        <v>639</v>
       </c>
       <c r="F31">
-        <v>895</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -5183,16 +7198,16 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D32">
+        <v>40</v>
+      </c>
+      <c r="E32">
         <v>80</v>
       </c>
-      <c r="E32">
-        <v>257</v>
-      </c>
       <c r="F32">
-        <v>892</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -5203,16 +7218,16 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="E33">
-        <v>710</v>
+        <v>80</v>
       </c>
       <c r="F33">
-        <v>2811</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -5223,16 +7238,16 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="E34">
-        <v>25</v>
+        <v>638</v>
       </c>
       <c r="F34">
-        <v>27</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -5243,16 +7258,16 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E35">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="F35">
-        <v>19</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -5263,16 +7278,16 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="E36">
-        <v>16</v>
+        <v>260</v>
       </c>
       <c r="F36">
-        <v>16</v>
+        <v>895</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -5283,16 +7298,16 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E37">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="F37">
-        <v>19</v>
+        <v>852</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -5303,16 +7318,16 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="E38">
-        <v>17</v>
+        <v>710</v>
       </c>
       <c r="F38">
-        <v>18</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -5323,16 +7338,16 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E39">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F39">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -5343,10 +7358,10 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>16</v>
@@ -5363,16 +7378,16 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D41">
         <v>26</v>
       </c>
       <c r="E41">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F41">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -5383,16 +7398,16 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D42">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E42">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F42">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -5403,136 +7418,136 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E43">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F43">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
       </c>
       <c r="C44">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E44">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="F44">
-        <v>275</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
       <c r="C45">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D45">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="E45">
-        <v>365</v>
+        <v>17</v>
       </c>
       <c r="F45">
-        <v>1128</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
       </c>
       <c r="C46">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D46">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E46">
-        <v>365</v>
+        <v>16</v>
       </c>
       <c r="F46">
-        <v>1125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
       </c>
       <c r="C47">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D47">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="E47">
-        <v>615</v>
+        <v>26</v>
       </c>
       <c r="F47">
-        <v>2311</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D48">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E48">
-        <v>257</v>
+        <v>33</v>
       </c>
       <c r="F48">
-        <v>892</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
       </c>
       <c r="C49">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E49">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F49">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -5543,16 +7558,16 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D50">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E50">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="F50">
-        <v>17</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -5563,16 +7578,16 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D51">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E51">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="F51">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -5583,16 +7598,16 @@
         <v>56</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D52">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E52">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="F52">
-        <v>19</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -5603,16 +7618,16 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D53">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E53">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="F53">
-        <v>17</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -5623,16 +7638,16 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="E54">
-        <v>19</v>
+        <v>365</v>
       </c>
       <c r="F54">
-        <v>19</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -5643,16 +7658,16 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E55">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="F55">
-        <v>18</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -5663,16 +7678,16 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D56">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E56">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F56">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -5683,16 +7698,16 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D57">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E57">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F57">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -5703,155 +7718,795 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D58">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="E58">
-        <v>26</v>
+        <v>639</v>
       </c>
       <c r="F58">
-        <v>26</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
         <v>63</v>
       </c>
       <c r="C59">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D59">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="E59">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="F59">
-        <v>1125</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
         <v>64</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D60">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E60">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="F60">
-        <v>17</v>
+        <v>852</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D61">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E61">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F61">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
       </c>
       <c r="C62">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D62">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E62">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F62">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
       </c>
       <c r="C63">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D63">
         <v>18</v>
       </c>
       <c r="E63">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F63">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
         <v>68</v>
       </c>
       <c r="C64">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D64">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E64">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F64">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
       </c>
       <c r="C65">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D65">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E65">
         <v>19</v>
       </c>
       <c r="F65">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>19</v>
+      </c>
+      <c r="D66">
+        <v>26</v>
+      </c>
+      <c r="E66">
+        <v>27</v>
+      </c>
+      <c r="F66">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67">
+        <v>18</v>
+      </c>
+      <c r="D67">
+        <v>22</v>
+      </c>
+      <c r="E67">
+        <v>18</v>
+      </c>
+      <c r="F67">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>20</v>
+      </c>
+      <c r="E68">
+        <v>16</v>
+      </c>
+      <c r="F68">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>18</v>
+      </c>
+      <c r="E69">
+        <v>18</v>
+      </c>
+      <c r="F69">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70">
+        <v>15</v>
+      </c>
+      <c r="D70">
+        <v>18</v>
+      </c>
+      <c r="E70">
+        <v>18</v>
+      </c>
+      <c r="F70">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71">
+        <v>15</v>
+      </c>
+      <c r="D71">
+        <v>16</v>
+      </c>
+      <c r="E71">
+        <v>17</v>
+      </c>
+      <c r="F71">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72">
+        <v>15</v>
+      </c>
+      <c r="D72">
+        <v>17</v>
+      </c>
+      <c r="E72">
+        <v>16</v>
+      </c>
+      <c r="F72">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73">
+        <v>15</v>
+      </c>
+      <c r="D73">
+        <v>17</v>
+      </c>
+      <c r="E73">
+        <v>16</v>
+      </c>
+      <c r="F73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74">
+        <v>22</v>
+      </c>
+      <c r="D74">
+        <v>30</v>
+      </c>
+      <c r="E74">
+        <v>33</v>
+      </c>
+      <c r="F74">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75">
+        <v>20</v>
+      </c>
+      <c r="D75">
+        <v>40</v>
+      </c>
+      <c r="E75">
+        <v>80</v>
+      </c>
+      <c r="F75">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76">
+        <v>24</v>
+      </c>
+      <c r="D76">
+        <v>40</v>
+      </c>
+      <c r="E76">
+        <v>80</v>
+      </c>
+      <c r="F76">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77">
+        <v>20</v>
+      </c>
+      <c r="D77">
+        <v>40</v>
+      </c>
+      <c r="E77">
+        <v>80</v>
+      </c>
+      <c r="F77">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78">
+        <v>42</v>
+      </c>
+      <c r="D78">
+        <v>65</v>
+      </c>
+      <c r="E78">
+        <v>169</v>
+      </c>
+      <c r="F78">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79">
+        <v>23</v>
+      </c>
+      <c r="D79">
+        <v>40</v>
+      </c>
+      <c r="E79">
+        <v>80</v>
+      </c>
+      <c r="F79">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80">
+        <v>17</v>
+      </c>
+      <c r="D80">
+        <v>20</v>
+      </c>
+      <c r="E80">
+        <v>25</v>
+      </c>
+      <c r="F80">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81">
+        <v>17</v>
+      </c>
+      <c r="D81">
+        <v>22</v>
+      </c>
+      <c r="E81">
+        <v>17</v>
+      </c>
+      <c r="F81">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82">
+        <v>15</v>
+      </c>
+      <c r="D82">
+        <v>18</v>
+      </c>
+      <c r="E82">
+        <v>18</v>
+      </c>
+      <c r="F82">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83">
+        <v>15</v>
+      </c>
+      <c r="D83">
+        <v>24</v>
+      </c>
+      <c r="E83">
+        <v>24</v>
+      </c>
+      <c r="F83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84">
+        <v>16</v>
+      </c>
+      <c r="D84">
+        <v>26</v>
+      </c>
+      <c r="E84">
+        <v>25</v>
+      </c>
+      <c r="F84">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85">
+        <v>14</v>
+      </c>
+      <c r="D85">
+        <v>22</v>
+      </c>
+      <c r="E85">
+        <v>19</v>
+      </c>
+      <c r="F85">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86">
+        <v>15</v>
+      </c>
+      <c r="D86">
+        <v>19</v>
+      </c>
+      <c r="E86">
+        <v>19</v>
+      </c>
+      <c r="F86">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87">
+        <v>12</v>
+      </c>
+      <c r="D87">
+        <v>24</v>
+      </c>
+      <c r="E87">
+        <v>22</v>
+      </c>
+      <c r="F87">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88">
+        <v>18</v>
+      </c>
+      <c r="D88">
+        <v>22</v>
+      </c>
+      <c r="E88">
+        <v>18</v>
+      </c>
+      <c r="F88">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89">
+        <v>12</v>
+      </c>
+      <c r="D89">
+        <v>18</v>
+      </c>
+      <c r="E89">
+        <v>18</v>
+      </c>
+      <c r="F89">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90">
+        <v>15</v>
+      </c>
+      <c r="D90">
+        <v>17</v>
+      </c>
+      <c r="E90">
+        <v>16</v>
+      </c>
+      <c r="F90">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91">
+        <v>20</v>
+      </c>
+      <c r="D91">
+        <v>40</v>
+      </c>
+      <c r="E91">
+        <v>80</v>
+      </c>
+      <c r="F91">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92">
+        <v>17</v>
+      </c>
+      <c r="D92">
+        <v>22</v>
+      </c>
+      <c r="E92">
+        <v>17</v>
+      </c>
+      <c r="F92">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93">
+        <v>15</v>
+      </c>
+      <c r="D93">
+        <v>24</v>
+      </c>
+      <c r="E93">
+        <v>24</v>
+      </c>
+      <c r="F93">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94">
+        <v>12</v>
+      </c>
+      <c r="D94">
+        <v>24</v>
+      </c>
+      <c r="E94">
+        <v>22</v>
+      </c>
+      <c r="F94">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95">
+        <v>14</v>
+      </c>
+      <c r="D95">
+        <v>22</v>
+      </c>
+      <c r="E95">
+        <v>19</v>
+      </c>
+      <c r="F95">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96">
+        <v>12</v>
+      </c>
+      <c r="D96">
+        <v>24</v>
+      </c>
+      <c r="E96">
+        <v>22</v>
+      </c>
+      <c r="F96">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>24</v>
+      </c>
+      <c r="E97">
+        <v>22</v>
+      </c>
+      <c r="F97">
         <v>19</v>
       </c>
     </row>
@@ -5862,7 +8517,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6056,16 +8711,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6076,16 +8731,16 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6096,16 +8751,16 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6116,16 +8771,16 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6136,16 +8791,16 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6156,16 +8811,16 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6176,16 +8831,16 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6196,16 +8851,16 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -6216,16 +8871,16 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>6</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -6236,16 +8891,16 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -6256,16 +8911,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -6279,13 +8934,13 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -6299,13 +8954,13 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -6319,33 +8974,33 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -6362,10 +9017,10 @@
         <v>6</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F25">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -6376,16 +9031,16 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -6396,16 +9051,16 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -6416,10 +9071,10 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>12</v>
@@ -6436,16 +9091,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -6456,16 +9111,16 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -6476,16 +9131,16 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -6496,16 +9151,16 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -6516,16 +9171,16 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -6536,16 +9191,16 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -6556,16 +9211,16 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -6576,16 +9231,16 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -6596,16 +9251,16 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -6616,16 +9271,16 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -6636,16 +9291,16 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -6659,13 +9314,13 @@
         <v>6</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -6676,16 +9331,16 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -6699,13 +9354,13 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -6716,136 +9371,136 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
       </c>
       <c r="C46">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E46">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F46">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -6856,16 +9511,16 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E50">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F50">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -6879,13 +9534,13 @@
         <v>6</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E51">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -6896,16 +9551,16 @@
         <v>56</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -6916,10 +9571,10 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E53">
         <v>6</v>
@@ -6936,16 +9591,16 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -6956,16 +9611,16 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -6976,16 +9631,16 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -6996,16 +9651,16 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -7016,41 +9671,41 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
         <v>63</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
         <v>64</v>
@@ -7059,67 +9714,67 @@
         <v>6</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E60">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F60">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D61">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F61">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
       </c>
       <c r="C62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F62">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E63">
         <v>4</v>
@@ -7130,42 +9785,682 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
         <v>68</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>7</v>
+      </c>
+      <c r="E73">
+        <v>7</v>
+      </c>
+      <c r="F73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>6</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79">
+        <v>8</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>7</v>
+      </c>
+      <c r="E80">
+        <v>9</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="D83">
+        <v>8</v>
+      </c>
+      <c r="E83">
+        <v>9</v>
+      </c>
+      <c r="F83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>10</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>7</v>
+      </c>
+      <c r="E86">
+        <v>7</v>
+      </c>
+      <c r="F86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>6</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>7</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94">
+        <v>6</v>
+      </c>
+      <c r="D94">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>6</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <v>8</v>
+      </c>
+      <c r="F95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Hasil_Pengujian_Map_4_128.xlsx
+++ b/Hasil_Pengujian_Map_4_128.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMHAS\TA_Python_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BE90F0-3353-4AE7-8B4F-F5F16C2413AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC32A43E-4F19-4398-A92C-12FC11B3D877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,6 +410,1444 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Perbandingan Kecepatan Pencarian</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waktu Pencarian'!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.7799999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0219999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.862E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6213000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9ED-4ECC-9EB9-9518F0AC190A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BRC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waktu Pencarian'!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0250000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2825E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8935000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4206999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A9ED-4ECC-9EB9-9518F0AC190A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waktu Pencarian'!$C$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.69E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1359999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.261000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3344499999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A9ED-4ECC-9EB9-9518F0AC190A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waktu Pencarian'!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.2549999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7404999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16374549999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A9ED-4ECC-9EB9-9518F0AC190A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PPO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waktu Pencarian'!$C$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.8445E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8455E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9848000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34197450000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A9ED-4ECC-9EB9-9518F0AC190A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TPF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waktu Pencarian'!$C$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.7135E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0070000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4998999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34494150000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A9ED-4ECC-9EB9-9518F0AC190A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BDS-EL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waktu Pencarian'!$C$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.6799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3300000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4120000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A9ED-4ECC-9EB9-9518F0AC190A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1919968399"/>
+        <c:axId val="1919968879"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1919968399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1919968879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1919968879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Waktu/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1919968399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>418767</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>442767</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>36819</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0691575A-7150-BEED-C497-26A606823E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -697,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2653,6 +4091,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Hasil_Pengujian_Map_4_128.xlsx
+++ b/Hasil_Pengujian_Map_4_128.xlsx
@@ -479,16 +479,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.001997</v>
+        <v>0.0008335</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005998</v>
+        <v>0.0058119</v>
       </c>
       <c r="E2" t="n">
-        <v>0.051085</v>
+        <v>0.05027089999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.34689</v>
+        <v>0.3424641</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.000294</v>
+        <v>0.0002639</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001031</v>
+        <v>0.0011263</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00386</v>
+        <v>0.0038057</v>
       </c>
       <c r="F3" t="n">
-        <v>0.016235</v>
+        <v>0.0166796</v>
       </c>
     </row>
     <row r="4">
@@ -523,16 +523,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.00099</v>
+        <v>0.0004318000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002087</v>
+        <v>0.0012597</v>
       </c>
       <c r="E4" t="n">
-        <v>0.005007</v>
+        <v>0.004787100000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.025618</v>
+        <v>0.0243261</v>
       </c>
     </row>
     <row r="5">
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.001164</v>
+        <v>0.0006248</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003761</v>
+        <v>0.0037075</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02448</v>
+        <v>0.0244738</v>
       </c>
       <c r="F5" t="n">
-        <v>0.164745</v>
+        <v>0.1631077</v>
       </c>
     </row>
     <row r="6">
@@ -567,16 +567,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.000674</v>
+        <v>0.0006466</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002218</v>
+        <v>0.0024285</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008378</v>
+        <v>0.008140600000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.033303</v>
+        <v>0.03394470000000001</v>
       </c>
     </row>
     <row r="7">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.002107</v>
+        <v>0.0008803999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00663</v>
+        <v>0.006186099999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.049806</v>
+        <v>0.05036120000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.345602</v>
+        <v>0.3443091</v>
       </c>
     </row>
     <row r="8">
@@ -611,16 +611,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.002662</v>
+        <v>0.001001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00822</v>
+        <v>0.007105600000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.051985</v>
+        <v>0.052021</v>
       </c>
       <c r="F8" t="n">
-        <v>0.352288</v>
+        <v>0.3453895000000001</v>
       </c>
     </row>
     <row r="9">
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.000458</v>
+        <v>0.0004505000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001094</v>
+        <v>0.0009860999999999997</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002799</v>
+        <v>0.0025503</v>
       </c>
       <c r="F9" t="n">
-        <v>0.008102</v>
+        <v>0.007773699999999999</v>
       </c>
     </row>
     <row r="10">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.000401</v>
+        <v>0.0003432999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001316</v>
+        <v>0.0013055</v>
       </c>
       <c r="E10" t="n">
-        <v>0.005382</v>
+        <v>0.0052589</v>
       </c>
       <c r="F10" t="n">
-        <v>0.023637</v>
+        <v>0.0224087</v>
       </c>
     </row>
     <row r="11">
@@ -677,16 +677,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.000321</v>
+        <v>0.0003148</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00121</v>
+        <v>0.0010961</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004132</v>
+        <v>0.0041146</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01746</v>
+        <v>0.0172631</v>
       </c>
     </row>
     <row r="12">
@@ -699,16 +699,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.00037</v>
+        <v>0.0003395</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001165</v>
+        <v>0.0011186</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004393</v>
+        <v>0.0043269</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0168</v>
+        <v>0.0166401</v>
       </c>
     </row>
     <row r="13">
@@ -721,16 +721,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.000849</v>
+        <v>0.0004567</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001462</v>
+        <v>0.0013759</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005419</v>
+        <v>0.0051706</v>
       </c>
       <c r="F13" t="n">
-        <v>0.025798</v>
+        <v>0.0256004</v>
       </c>
     </row>
     <row r="14">
@@ -743,16 +743,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.000844</v>
+        <v>0.0004869999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001414</v>
+        <v>0.0013639</v>
       </c>
       <c r="E14" t="n">
-        <v>0.004935</v>
+        <v>0.004867499999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.030453</v>
+        <v>0.0230046</v>
       </c>
     </row>
     <row r="15">
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.000764</v>
+        <v>0.0006956</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002715</v>
+        <v>0.0024759</v>
       </c>
       <c r="E15" t="n">
-        <v>0.012368</v>
+        <v>0.0123796</v>
       </c>
       <c r="F15" t="n">
-        <v>0.070233</v>
+        <v>0.0684906</v>
       </c>
     </row>
     <row r="16">
@@ -787,16 +787,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.001038</v>
+        <v>0.000664</v>
       </c>
       <c r="D16" t="n">
-        <v>0.003941</v>
+        <v>0.003835799999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.024905</v>
+        <v>0.0257944</v>
       </c>
       <c r="F16" t="n">
-        <v>0.165771</v>
+        <v>0.1643607</v>
       </c>
     </row>
     <row r="17">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.000787</v>
+        <v>0.0005872</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003315</v>
+        <v>0.0032827</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02069</v>
+        <v>0.0207311</v>
       </c>
       <c r="F17" t="n">
-        <v>0.155048</v>
+        <v>0.1541018</v>
       </c>
     </row>
     <row r="18">
@@ -831,16 +831,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.000616</v>
+        <v>0.000419</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001631</v>
+        <v>0.0016214</v>
       </c>
       <c r="E18" t="n">
-        <v>0.006129</v>
+        <v>0.006107</v>
       </c>
       <c r="F18" t="n">
-        <v>0.023822</v>
+        <v>0.0240633</v>
       </c>
     </row>
     <row r="19">
@@ -853,16 +853,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.000422</v>
+        <v>0.000358</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001101</v>
+        <v>0.0010723</v>
       </c>
       <c r="E19" t="n">
-        <v>0.004015</v>
+        <v>0.0038405</v>
       </c>
       <c r="F19" t="n">
-        <v>0.016651</v>
+        <v>0.016973</v>
       </c>
     </row>
     <row r="20">
@@ -875,16 +875,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.00082</v>
+        <v>0.0005517000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001857</v>
+        <v>0.0018633</v>
       </c>
       <c r="E20" t="n">
-        <v>0.006775</v>
+        <v>0.0066313</v>
       </c>
       <c r="F20" t="n">
-        <v>0.025866</v>
+        <v>0.0258642</v>
       </c>
     </row>
     <row r="21">
@@ -897,16 +897,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.000668</v>
+        <v>0.0006588</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002203</v>
+        <v>0.0021593</v>
       </c>
       <c r="E21" t="n">
-        <v>0.008284</v>
+        <v>0.0081835</v>
       </c>
       <c r="F21" t="n">
-        <v>0.033391</v>
+        <v>0.0337889</v>
       </c>
     </row>
     <row r="22">
@@ -919,16 +919,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.000669</v>
+        <v>0.0006471000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002158</v>
+        <v>0.0021609</v>
       </c>
       <c r="E22" t="n">
-        <v>0.008026</v>
+        <v>0.007789900000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.032184</v>
+        <v>0.03259410000000001</v>
       </c>
     </row>
     <row r="23">
@@ -941,16 +941,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.002388</v>
+        <v>0.0010669</v>
       </c>
       <c r="D23" t="n">
-        <v>0.007568</v>
+        <v>0.007206399999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.052811</v>
+        <v>0.05181290000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>0.349902</v>
+        <v>0.3469705</v>
       </c>
     </row>
     <row r="24">
@@ -963,16 +963,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.000506</v>
+        <v>0.0004536999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001302</v>
+        <v>0.0010816</v>
       </c>
       <c r="E24" t="n">
-        <v>0.003815</v>
+        <v>0.0028326</v>
       </c>
       <c r="F24" t="n">
-        <v>0.008904</v>
+        <v>0.008746499999999999</v>
       </c>
     </row>
     <row r="25">
@@ -985,16 +985,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.000494</v>
+        <v>0.0004674</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001101</v>
+        <v>0.0010647</v>
       </c>
       <c r="E25" t="n">
-        <v>0.002727</v>
+        <v>0.0026656</v>
       </c>
       <c r="F25" t="n">
-        <v>0.008077000000000001</v>
+        <v>0.0075354</v>
       </c>
     </row>
     <row r="26">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.000817</v>
+        <v>0.0007099000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002326</v>
+        <v>0.0025261</v>
       </c>
       <c r="E26" t="n">
-        <v>0.016728</v>
+        <v>0.008217</v>
       </c>
       <c r="F26" t="n">
-        <v>0.035949</v>
+        <v>0.0355198</v>
       </c>
     </row>
     <row r="27">
@@ -1029,16 +1029,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.000405</v>
+        <v>0.0003972</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001446</v>
+        <v>0.0014212</v>
       </c>
       <c r="E27" t="n">
-        <v>0.005576</v>
+        <v>0.0057377</v>
       </c>
       <c r="F27" t="n">
-        <v>0.023575</v>
+        <v>0.0233839</v>
       </c>
     </row>
     <row r="28">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.000369</v>
+        <v>0.0003725000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001535</v>
+        <v>0.0014096</v>
       </c>
       <c r="E28" t="n">
-        <v>0.005484</v>
+        <v>0.005476099999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>0.023096</v>
+        <v>0.0230785</v>
       </c>
     </row>
     <row r="29">
@@ -1073,16 +1073,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.000416</v>
+        <v>0.0005109</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001218</v>
+        <v>0.0012041</v>
       </c>
       <c r="E29" t="n">
-        <v>0.004807</v>
+        <v>0.004650899999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>0.017663</v>
+        <v>0.0176297</v>
       </c>
     </row>
     <row r="30">
@@ -1095,16 +1095,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.0009779999999999999</v>
+        <v>0.0005714</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001797</v>
+        <v>0.0014966</v>
       </c>
       <c r="E30" t="n">
-        <v>0.005464</v>
+        <v>0.0052861</v>
       </c>
       <c r="F30" t="n">
-        <v>0.025041</v>
+        <v>0.0242942</v>
       </c>
     </row>
     <row r="31">
@@ -1117,16 +1117,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.000748</v>
+        <v>0.0006979</v>
       </c>
       <c r="D31" t="n">
-        <v>0.002932</v>
+        <v>0.0026138</v>
       </c>
       <c r="E31" t="n">
-        <v>0.012952</v>
+        <v>0.0123895</v>
       </c>
       <c r="F31" t="n">
-        <v>0.071932</v>
+        <v>0.0695863</v>
       </c>
     </row>
     <row r="32">
@@ -1139,16 +1139,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.000752</v>
+        <v>0.0007023</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001541</v>
+        <v>0.0014305</v>
       </c>
       <c r="E32" t="n">
-        <v>0.006263</v>
+        <v>0.0060829</v>
       </c>
       <c r="F32" t="n">
-        <v>0.063703</v>
+        <v>0.0612884</v>
       </c>
     </row>
     <row r="33">
@@ -1161,16 +1161,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.000812</v>
+        <v>0.0006203000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0036</v>
+        <v>0.003436900000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.021054</v>
+        <v>0.0207729</v>
       </c>
       <c r="F33" t="n">
-        <v>0.156043</v>
+        <v>0.1551152</v>
       </c>
     </row>
     <row r="34">
@@ -1183,16 +1183,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.000564</v>
+        <v>0.0004923999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.002048</v>
+        <v>0.0020152</v>
       </c>
       <c r="E34" t="n">
-        <v>0.006986</v>
+        <v>0.006526599999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>0.025533</v>
+        <v>0.0261242</v>
       </c>
     </row>
     <row r="35">
@@ -1205,16 +1205,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.00051</v>
+        <v>0.0004796</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002033</v>
+        <v>0.0020089</v>
       </c>
       <c r="E35" t="n">
-        <v>0.007642</v>
+        <v>0.007387300000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>0.028357</v>
+        <v>0.0283426</v>
       </c>
     </row>
     <row r="36">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.000683</v>
+        <v>0.0004487000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001688</v>
+        <v>0.0016541</v>
       </c>
       <c r="E36" t="n">
-        <v>0.006171</v>
+        <v>0.006235</v>
       </c>
       <c r="F36" t="n">
-        <v>0.024128</v>
+        <v>0.0243038</v>
       </c>
     </row>
     <row r="37">
@@ -1249,16 +1249,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.000436</v>
+        <v>0.0003911</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001578</v>
+        <v>0.0014885</v>
       </c>
       <c r="E37" t="n">
-        <v>0.005426</v>
+        <v>0.0054009</v>
       </c>
       <c r="F37" t="n">
-        <v>0.020889</v>
+        <v>0.0207532</v>
       </c>
     </row>
     <row r="38">
@@ -1271,16 +1271,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.000587</v>
+        <v>0.0003929</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001126</v>
+        <v>0.0011123</v>
       </c>
       <c r="E38" t="n">
-        <v>0.003905</v>
+        <v>0.00441</v>
       </c>
       <c r="F38" t="n">
-        <v>0.016934</v>
+        <v>0.0172117</v>
       </c>
     </row>
     <row r="39">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.000835</v>
+        <v>0.0003646</v>
       </c>
       <c r="D39" t="n">
-        <v>0.001087</v>
+        <v>0.00108</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003777</v>
+        <v>0.003787099999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01676</v>
+        <v>0.0168855</v>
       </c>
     </row>
     <row r="40">
@@ -1315,16 +1315,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.00067</v>
+        <v>0.0003961</v>
       </c>
       <c r="D40" t="n">
-        <v>0.001225</v>
+        <v>0.0011803</v>
       </c>
       <c r="E40" t="n">
-        <v>0.004254</v>
+        <v>0.0039158</v>
       </c>
       <c r="F40" t="n">
-        <v>0.014284</v>
+        <v>0.0145294</v>
       </c>
     </row>
     <row r="41">
@@ -1337,16 +1337,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.000842</v>
+        <v>0.000577</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001907</v>
+        <v>0.0019044</v>
       </c>
       <c r="E41" t="n">
-        <v>0.006767</v>
+        <v>0.006723700000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.025968</v>
+        <v>0.0258924</v>
       </c>
     </row>
     <row r="42">
@@ -1359,16 +1359,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.000853</v>
+        <v>0.0005431000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.002411</v>
+        <v>0.0023042</v>
       </c>
       <c r="E42" t="n">
-        <v>0.008666999999999999</v>
+        <v>0.008693299999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>0.029261</v>
+        <v>0.0293133</v>
       </c>
     </row>
     <row r="43">
@@ -1381,16 +1381,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.000705</v>
+        <v>0.0006597</v>
       </c>
       <c r="D43" t="n">
-        <v>0.002249</v>
+        <v>0.002187</v>
       </c>
       <c r="E43" t="n">
-        <v>0.008135</v>
+        <v>0.0078823</v>
       </c>
       <c r="F43" t="n">
-        <v>0.032496</v>
+        <v>0.0326789</v>
       </c>
     </row>
     <row r="44">
@@ -1403,16 +1403,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.000554</v>
+        <v>0.0004936000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.001184</v>
+        <v>0.0011824</v>
       </c>
       <c r="E44" t="n">
-        <v>0.003034</v>
+        <v>0.0029287</v>
       </c>
       <c r="F44" t="n">
-        <v>0.008824</v>
+        <v>0.008530800000000002</v>
       </c>
     </row>
     <row r="45">
@@ -1425,16 +1425,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.000793</v>
+        <v>0.0007751</v>
       </c>
       <c r="D45" t="n">
-        <v>0.002542</v>
+        <v>0.0027983</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01347</v>
+        <v>0.008698899999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>0.038073</v>
+        <v>0.0369234</v>
       </c>
     </row>
     <row r="46">
@@ -1447,16 +1447,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.000733</v>
+        <v>0.0007051000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.001318</v>
+        <v>0.0014811</v>
       </c>
       <c r="E46" t="n">
-        <v>0.004429</v>
+        <v>0.0036559</v>
       </c>
       <c r="F46" t="n">
-        <v>0.032126</v>
+        <v>0.0318208</v>
       </c>
     </row>
     <row r="47">
@@ -1469,16 +1469,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.000433</v>
+        <v>0.0004059</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001542</v>
+        <v>0.0015537</v>
       </c>
       <c r="E47" t="n">
-        <v>0.005841</v>
+        <v>0.005906600000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>0.024815</v>
+        <v>0.0242421</v>
       </c>
     </row>
     <row r="48">
@@ -1491,16 +1491,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.00084</v>
+        <v>0.0007587</v>
       </c>
       <c r="D48" t="n">
-        <v>0.001613</v>
+        <v>0.0015202</v>
       </c>
       <c r="E48" t="n">
-        <v>0.006611</v>
+        <v>0.006524199999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>0.064442</v>
+        <v>0.06301469999999998</v>
       </c>
     </row>
     <row r="49">
@@ -1513,16 +1513,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.0006089999999999999</v>
+        <v>0.000516</v>
       </c>
       <c r="D49" t="n">
-        <v>0.002221</v>
+        <v>0.0020885</v>
       </c>
       <c r="E49" t="n">
-        <v>0.006683</v>
+        <v>0.0067367</v>
       </c>
       <c r="F49" t="n">
-        <v>0.025953</v>
+        <v>0.0257645</v>
       </c>
     </row>
     <row r="50">
@@ -1535,16 +1535,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.000553</v>
+        <v>0.0004237000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.001673</v>
+        <v>0.0016205</v>
       </c>
       <c r="E50" t="n">
-        <v>0.005702</v>
+        <v>0.005560499999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>0.021246</v>
+        <v>0.0209676</v>
       </c>
     </row>
     <row r="51">
@@ -1557,16 +1557,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.001032</v>
+        <v>0.0004583</v>
       </c>
       <c r="D51" t="n">
-        <v>0.002302</v>
+        <v>0.0022445</v>
       </c>
       <c r="E51" t="n">
-        <v>0.007716</v>
+        <v>0.007102</v>
       </c>
       <c r="F51" t="n">
-        <v>0.026542</v>
+        <v>0.0266594</v>
       </c>
     </row>
     <row r="52">
@@ -1579,16 +1579,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.00055</v>
+        <v>0.0005112</v>
       </c>
       <c r="D52" t="n">
-        <v>0.002141</v>
+        <v>0.0021047</v>
       </c>
       <c r="E52" t="n">
-        <v>0.007738</v>
+        <v>0.0074482</v>
       </c>
       <c r="F52" t="n">
-        <v>0.028536</v>
+        <v>0.0287066</v>
       </c>
     </row>
     <row r="53">
@@ -1601,16 +1601,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.000468</v>
+        <v>0.0004319</v>
       </c>
       <c r="D53" t="n">
-        <v>0.001574</v>
+        <v>0.0015673</v>
       </c>
       <c r="E53" t="n">
-        <v>0.005494</v>
+        <v>0.0054129</v>
       </c>
       <c r="F53" t="n">
-        <v>0.020905</v>
+        <v>0.0208642</v>
       </c>
     </row>
     <row r="54">
@@ -1623,16 +1623,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.00046</v>
+        <v>0.0004198</v>
       </c>
       <c r="D54" t="n">
-        <v>0.001627</v>
+        <v>0.0015161</v>
       </c>
       <c r="E54" t="n">
-        <v>0.00545</v>
+        <v>0.005467</v>
       </c>
       <c r="F54" t="n">
-        <v>0.020949</v>
+        <v>0.0209494</v>
       </c>
     </row>
     <row r="55">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.000669</v>
+        <v>0.0003948</v>
       </c>
       <c r="D55" t="n">
-        <v>0.001172</v>
+        <v>0.001124</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00393</v>
+        <v>0.0038565</v>
       </c>
       <c r="F55" t="n">
-        <v>0.016726</v>
+        <v>0.0171562</v>
       </c>
     </row>
     <row r="56">
@@ -1667,16 +1667,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.000754</v>
+        <v>0.0004243</v>
       </c>
       <c r="D56" t="n">
-        <v>0.001245</v>
+        <v>0.0012293</v>
       </c>
       <c r="E56" t="n">
-        <v>0.004098</v>
+        <v>0.0040221</v>
       </c>
       <c r="F56" t="n">
-        <v>0.014961</v>
+        <v>0.0145349</v>
       </c>
     </row>
     <row r="57">
@@ -1689,16 +1689,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.00059</v>
+        <v>0.0004052</v>
       </c>
       <c r="D57" t="n">
-        <v>0.001264</v>
+        <v>0.0012033</v>
       </c>
       <c r="E57" t="n">
-        <v>0.003869</v>
+        <v>0.0039927</v>
       </c>
       <c r="F57" t="n">
-        <v>0.014744</v>
+        <v>0.0144657</v>
       </c>
     </row>
     <row r="58">
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.001</v>
+        <v>0.0005707000000000002</v>
       </c>
       <c r="D58" t="n">
-        <v>0.002349</v>
+        <v>0.0023601</v>
       </c>
       <c r="E58" t="n">
-        <v>0.008689000000000001</v>
+        <v>0.0087128</v>
       </c>
       <c r="F58" t="n">
-        <v>0.02958</v>
+        <v>0.029307</v>
       </c>
     </row>
     <row r="59">
@@ -1733,16 +1733,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.0008</v>
+        <v>0.0007714999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.001393</v>
+        <v>0.0023743</v>
       </c>
       <c r="E59" t="n">
-        <v>0.004244</v>
+        <v>0.0039308</v>
       </c>
       <c r="F59" t="n">
-        <v>0.034236</v>
+        <v>0.0331042</v>
       </c>
     </row>
     <row r="60">
@@ -1755,16 +1755,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.0004929999999999999</v>
+        <v>0.0004569999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.001699</v>
+        <v>0.0016955</v>
       </c>
       <c r="E60" t="n">
-        <v>0.006103</v>
+        <v>0.0057336</v>
       </c>
       <c r="F60" t="n">
-        <v>0.021814</v>
+        <v>0.0212401</v>
       </c>
     </row>
     <row r="61">
@@ -1777,16 +1777,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.000616</v>
+        <v>0.0005024</v>
       </c>
       <c r="D61" t="n">
-        <v>0.002245</v>
+        <v>0.0022845</v>
       </c>
       <c r="E61" t="n">
-        <v>0.007239</v>
+        <v>0.0071683</v>
       </c>
       <c r="F61" t="n">
-        <v>0.026973</v>
+        <v>0.0269434</v>
       </c>
     </row>
     <row r="62">
@@ -1799,16 +1799,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.000443</v>
+        <v>0.0003901</v>
       </c>
       <c r="D62" t="n">
-        <v>0.001683</v>
+        <v>0.0016764</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00623</v>
+        <v>0.006025600000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>0.023929</v>
+        <v>0.0231455</v>
       </c>
     </row>
     <row r="63">
@@ -1821,16 +1821,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.000623</v>
+        <v>0.0004616999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.001649</v>
+        <v>0.001698</v>
       </c>
       <c r="E63" t="n">
-        <v>0.00578</v>
+        <v>0.005531400000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>0.022192</v>
+        <v>0.0209781</v>
       </c>
     </row>
     <row r="64">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.001108</v>
+        <v>0.0004337</v>
       </c>
       <c r="D64" t="n">
-        <v>0.001251</v>
+        <v>0.001245</v>
       </c>
       <c r="E64" t="n">
-        <v>0.003977</v>
+        <v>0.0039853</v>
       </c>
       <c r="F64" t="n">
-        <v>0.014857</v>
+        <v>0.0147108</v>
       </c>
     </row>
     <row r="65">
@@ -1865,16 +1865,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.000453</v>
+        <v>0.0004498999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.001808</v>
+        <v>0.0017839</v>
       </c>
       <c r="E65" t="n">
-        <v>0.006137</v>
+        <v>0.0061185</v>
       </c>
       <c r="F65" t="n">
-        <v>0.023231</v>
+        <v>0.0232108</v>
       </c>
     </row>
   </sheetData>
